--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -333,6 +348,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -421,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +451,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,265 +473,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -734,2285 +795,2630 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -796,2629 +799,2629 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -353,7 +356,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -442,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,7 +457,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,13 +577,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -597,7 +600,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -620,7 +623,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -643,13 +646,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -666,7 +669,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -689,7 +692,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -712,7 +715,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -735,7 +738,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -758,7 +761,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -780,2648 +783,2671 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>33</v>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -445,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
         <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -1983,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
@@ -1992,7 +1998,7 @@
         <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2003,22 +2009,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2118,22 +2124,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>21</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2210,22 +2216,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2233,22 +2239,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2302,22 +2308,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2417,22 +2423,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2440,22 +2446,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2466,16 +2472,16 @@
         <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,7 +2495,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2498,7 +2504,7 @@
         <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,16 +2518,16 @@
         <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2532,10 +2538,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2544,7 +2550,7 @@
         <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2601,16 +2607,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>100</v>
@@ -2624,10 +2630,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2636,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2785,10 +2791,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2797,7 +2803,7 @@
         <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2820,7 +2826,7 @@
         <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2831,10 +2837,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2843,7 +2849,7 @@
         <v>95</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2854,599 +2860,691 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -362,7 +362,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -463,7 +466,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3438,7 +3441,7 @@
         <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3458,19 +3461,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3484,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>24</v>
@@ -3504,10 +3507,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3516,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -3539,7 +3542,7 @@
         <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3441,7 +3438,7 @@
         <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3461,19 +3458,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3481,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>24</v>
@@ -3507,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3519,7 +3516,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3530,10 +3527,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -3542,7 +3539,7 @@
         <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3438,7 +3441,7 @@
         <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3458,19 +3461,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3481,19 +3484,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>24</v>
@@ -3504,10 +3507,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3516,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -3539,7 +3542,7 @@
         <v>97</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -454,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -464,7 +494,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2012,22 +2042,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2035,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,22 +2157,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2150,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,22 +2203,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2196,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,22 +2249,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2242,22 +2272,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2265,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,22 +2318,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2311,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2364,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2357,22 +2387,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2380,22 +2410,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2403,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,22 +2456,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2449,22 +2479,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2472,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,22 +2525,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2518,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2541,22 +2571,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2564,22 +2594,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2587,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2663,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2679,22 +2709,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2702,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2725,22 +2755,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2748,22 +2778,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2771,19 +2801,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2870,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2893,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2916,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2909,16 +2939,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>112</v>
@@ -2932,622 +2962,944 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E134" s="2" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -212,13 +218,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,22 +2209,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2364,22 +2370,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>21</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2456,22 +2462,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2525,22 +2531,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2571,22 +2577,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>21</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2640,22 +2646,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2663,22 +2669,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2709,22 +2715,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2755,22 +2761,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2804,7 +2810,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2813,7 +2819,7 @@
         <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2850,19 +2856,19 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2870,10 +2876,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2882,7 +2888,7 @@
         <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2939,16 +2945,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>112</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3014,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,10 +3129,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3135,7 +3141,7 @@
         <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3238,10 +3244,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3250,7 +3256,7 @@
         <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3261,10 +3267,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3273,7 +3279,7 @@
         <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3284,622 +3290,737 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B148" s="2" t="s">
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2209,22 +2215,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2255,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,22 +2399,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2462,22 +2468,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2485,22 +2491,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2508,22 +2514,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,22 +2583,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2600,22 +2606,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,22 +2721,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2738,22 +2744,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2784,22 +2790,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2807,19 +2813,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2830,22 +2836,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -2879,7 +2885,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2888,7 +2894,7 @@
         <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -2925,19 +2931,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -2945,10 +2951,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2957,7 +2963,7 @@
         <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2968,19 +2974,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3014,19 +3020,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3060,10 +3066,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3072,7 +3078,7 @@
         <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3083,19 +3089,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3106,19 +3112,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3181,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3221,10 +3227,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3233,7 +3239,7 @@
         <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3250,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3290,19 +3296,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3336,10 +3342,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3348,7 +3354,7 @@
         <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3359,10 +3365,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3371,7 +3377,7 @@
         <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3382,645 +3388,737 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2261,22 +2267,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,22 +2313,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2445,22 +2451,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2537,22 +2543,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2560,22 +2566,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2652,22 +2658,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2675,22 +2681,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2698,22 +2704,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2813,22 +2819,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2905,22 +2911,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>21</v>
@@ -2954,7 +2960,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2963,7 +2969,7 @@
         <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2983,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3000,19 +3006,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3020,10 +3026,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3032,7 +3038,7 @@
         <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3135,10 +3141,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3147,7 +3153,7 @@
         <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3296,10 +3302,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3308,7 +3314,7 @@
         <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3348,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3371,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3388,19 +3394,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3411,10 +3417,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3423,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3434,10 +3440,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3446,7 +3452,7 @@
         <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3457,668 +3463,760 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="2" t="s">
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -212,9 +302,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -302,6 +389,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -353,9 +449,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -413,9 +506,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -444,6 +534,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -502,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -982,22 +1078,22 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1005,22 +1101,22 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1028,22 +1124,22 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1051,22 +1147,22 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1074,22 +1170,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1097,22 +1193,22 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1120,22 +1216,22 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1143,22 +1239,22 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1166,22 +1262,22 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1189,22 +1285,22 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1212,22 +1308,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1235,22 +1331,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1258,39 +1354,39 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1301,19 +1397,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1324,19 +1420,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1347,19 +1443,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1466,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1489,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1512,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1535,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1558,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1581,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1604,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1627,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1650,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1673,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1696,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,620 +1995,620 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2520,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,22 +2639,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2566,22 +2662,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2589,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,22 +2731,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2658,22 +2754,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2681,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,22 +2800,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2727,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,22 +2846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2773,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,22 +2892,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2819,22 +2915,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2842,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,22 +3030,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -2957,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,22 +3076,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3003,22 +3099,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3026,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,22 +3306,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3233,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3256,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3279,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3394,22 +3490,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3417,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3440,22 +3536,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3463,22 +3559,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3486,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3509,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3532,617 +3628,617 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4153,22 +4249,22 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>34</v>
@@ -4176,19 +4272,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4199,24 +4295,944 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="B168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -598,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2320,7 +2320,7 @@
         <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2329,7 +2329,7 @@
         <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,7 +2343,7 @@
         <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
         <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,7 +2366,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2375,7 +2375,7 @@
         <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,7 +2389,7 @@
         <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2398,7 +2398,7 @@
         <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,7 +2412,7 @@
         <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2421,7 +2421,7 @@
         <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,7 +2435,7 @@
         <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2444,7 +2444,7 @@
         <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,7 +2458,7 @@
         <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2467,7 +2467,7 @@
         <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,7 +2481,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2490,7 +2490,7 @@
         <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,7 +2504,7 @@
         <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2513,7 +2513,7 @@
         <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,7 +2527,7 @@
         <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2536,7 +2536,7 @@
         <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,7 +2550,7 @@
         <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2559,7 +2559,7 @@
         <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,25 +2570,25 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -2596,16 +2596,16 @@
         <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,16 +2619,16 @@
         <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,16 +2642,16 @@
         <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,7 +2665,7 @@
         <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2674,7 +2674,7 @@
         <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,7 +2688,7 @@
         <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2697,7 +2697,7 @@
         <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,7 +2711,7 @@
         <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2720,7 +2720,7 @@
         <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,16 +2734,16 @@
         <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,7 +2757,7 @@
         <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2766,7 +2766,7 @@
         <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,7 +2780,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2789,7 +2789,7 @@
         <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,7 +2803,7 @@
         <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2812,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,7 +2826,7 @@
         <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2835,7 +2835,7 @@
         <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,16 +2849,16 @@
         <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,7 +2872,7 @@
         <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -2881,7 +2881,7 @@
         <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,16 +2895,16 @@
         <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,7 +2918,7 @@
         <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2927,7 +2927,7 @@
         <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,7 +2941,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2950,7 +2950,7 @@
         <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,7 +2964,7 @@
         <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2973,7 +2973,7 @@
         <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
         <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2996,7 +2996,7 @@
         <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,7 +3010,7 @@
         <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3019,7 +3019,7 @@
         <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,7 +3033,7 @@
         <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3042,7 +3042,7 @@
         <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,7 +3056,7 @@
         <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3065,7 +3065,7 @@
         <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,7 +3079,7 @@
         <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3088,7 +3088,7 @@
         <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,16 +3102,16 @@
         <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,7 +3125,7 @@
         <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3134,7 +3134,7 @@
         <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,7 +3148,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3157,7 +3157,7 @@
         <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3171,16 +3171,16 @@
         <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,7 +3194,7 @@
         <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3203,7 +3203,7 @@
         <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3217,7 +3217,7 @@
         <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3226,7 +3226,7 @@
         <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3240,7 +3240,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3249,7 +3249,7 @@
         <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,7 +3263,7 @@
         <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3272,7 +3272,7 @@
         <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,22 +3283,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3309,19 +3309,19 @@
         <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3332,16 +3332,16 @@
         <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3355,16 +3355,16 @@
         <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,7 +3378,7 @@
         <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3387,7 +3387,7 @@
         <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3401,7 +3401,7 @@
         <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3410,7 +3410,7 @@
         <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,7 +3424,7 @@
         <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3433,7 +3433,7 @@
         <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3447,16 +3447,16 @@
         <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,7 +3470,7 @@
         <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3479,10 +3479,10 @@
         <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3493,7 +3493,7 @@
         <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3502,10 +3502,10 @@
         <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3516,7 +3516,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3525,10 +3525,10 @@
         <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3539,7 +3539,7 @@
         <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3548,7 +3548,7 @@
         <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>21</v>
@@ -3562,19 +3562,19 @@
         <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3585,7 +3585,7 @@
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3594,7 +3594,7 @@
         <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3608,19 @@
         <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3631,7 +3631,7 @@
         <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3640,7 +3640,7 @@
         <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>21</v>
@@ -3654,7 +3654,7 @@
         <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3663,10 +3663,10 @@
         <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3677,7 +3677,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3686,10 +3686,10 @@
         <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3700,7 +3700,7 @@
         <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3709,10 +3709,10 @@
         <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3723,7 +3723,7 @@
         <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3732,10 +3732,10 @@
         <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3746,7 +3746,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3755,10 +3755,10 @@
         <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3769,7 +3769,7 @@
         <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3778,10 +3778,10 @@
         <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3792,7 +3792,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3801,7 +3801,7 @@
         <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>21</v>
@@ -3815,19 +3815,19 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3838,7 +3838,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3847,7 +3847,7 @@
         <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3861,7 +3861,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3870,7 +3870,7 @@
         <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3907,7 +3907,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3916,10 +3916,10 @@
         <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>34</v>
@@ -3930,7 +3930,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3939,10 +3939,10 @@
         <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -3953,7 +3953,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3962,10 +3962,10 @@
         <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3976,7 +3976,7 @@
         <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3985,7 +3985,7 @@
         <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>21</v>
@@ -3996,22 +3996,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4022,16 +4022,16 @@
         <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4045,16 +4045,16 @@
         <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4068,7 +4068,7 @@
         <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4077,7 +4077,7 @@
         <v>65</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4091,16 +4091,16 @@
         <v>142</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4114,16 +4114,16 @@
         <v>142</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4137,7 +4137,7 @@
         <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -4146,7 +4146,7 @@
         <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4160,16 +4160,16 @@
         <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4183,7 +4183,7 @@
         <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4192,7 +4192,7 @@
         <v>65</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4206,16 +4206,16 @@
         <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4229,7 +4229,7 @@
         <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4238,7 +4238,7 @@
         <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4252,16 +4252,16 @@
         <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4275,7 +4275,7 @@
         <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4298,7 +4298,7 @@
         <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4307,7 +4307,7 @@
         <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4321,7 +4321,7 @@
         <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4330,7 +4330,7 @@
         <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4344,16 +4344,16 @@
         <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4367,16 +4367,16 @@
         <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4390,7 +4390,7 @@
         <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4399,7 +4399,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4413,7 +4413,7 @@
         <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4422,7 +4422,7 @@
         <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4436,7 +4436,7 @@
         <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4445,7 +4445,7 @@
         <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4459,16 +4459,16 @@
         <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4482,7 +4482,7 @@
         <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4491,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4502,25 +4502,25 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
@@ -4528,19 +4528,19 @@
         <v>160</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>163</v>
@@ -4551,16 +4551,16 @@
         <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4574,16 +4574,16 @@
         <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4597,7 +4597,7 @@
         <v>160</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4606,7 +4606,7 @@
         <v>161</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4620,7 +4620,7 @@
         <v>160</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4629,7 +4629,7 @@
         <v>161</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4643,7 +4643,7 @@
         <v>160</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4652,7 +4652,7 @@
         <v>161</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4666,16 +4666,16 @@
         <v>160</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4689,7 +4689,7 @@
         <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4698,10 +4698,10 @@
         <v>161</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>163</v>
@@ -4712,7 +4712,7 @@
         <v>160</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4721,10 +4721,10 @@
         <v>161</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>163</v>
@@ -4735,7 +4735,7 @@
         <v>160</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4744,10 +4744,10 @@
         <v>161</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>163</v>
@@ -4758,7 +4758,7 @@
         <v>160</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4767,7 +4767,7 @@
         <v>161</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>162</v>
@@ -4781,19 +4781,19 @@
         <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>163</v>
@@ -4804,7 +4804,7 @@
         <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4813,7 +4813,7 @@
         <v>161</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4827,19 +4827,19 @@
         <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>163</v>
@@ -4850,7 +4850,7 @@
         <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4859,7 +4859,7 @@
         <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>162</v>
@@ -4873,7 +4873,7 @@
         <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4882,10 +4882,10 @@
         <v>161</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>163</v>
@@ -4896,7 +4896,7 @@
         <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4905,10 +4905,10 @@
         <v>161</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>163</v>
@@ -4919,7 +4919,7 @@
         <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4928,10 +4928,10 @@
         <v>161</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>163</v>
@@ -4942,7 +4942,7 @@
         <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4951,10 +4951,10 @@
         <v>161</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>163</v>
@@ -4965,7 +4965,7 @@
         <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4974,10 +4974,10 @@
         <v>161</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>163</v>
@@ -4988,7 +4988,7 @@
         <v>160</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4997,10 +4997,10 @@
         <v>161</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>163</v>
@@ -5011,7 +5011,7 @@
         <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5020,7 +5020,7 @@
         <v>161</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>162</v>
@@ -5034,19 +5034,19 @@
         <v>160</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>163</v>
@@ -5057,7 +5057,7 @@
         <v>160</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>17</v>
@@ -5066,7 +5066,7 @@
         <v>161</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5080,7 +5080,7 @@
         <v>160</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
@@ -5089,7 +5089,7 @@
         <v>161</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5100,25 +5100,25 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197">
@@ -5126,19 +5126,19 @@
         <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>34</v>
@@ -5149,19 +5149,19 @@
         <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>34</v>
@@ -5172,16 +5172,16 @@
         <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5195,44 +5195,21 @@
         <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -4784,7 +4784,7 @@
         <v>97</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>161</v>
@@ -4807,7 +4807,7 @@
         <v>99</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>161</v>
@@ -4816,7 +4816,7 @@
         <v>100</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>163</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_093.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -598,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1653,7 +1665,7 @@
         <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1662,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,7 +1688,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1685,7 +1697,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,7 +1711,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1995,65 +2007,65 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,111 +2582,111 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,22 +3295,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3306,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,22 +3433,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>34</v>
@@ -3444,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,22 +3479,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3490,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,22 +3525,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3536,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>21</v>
@@ -3559,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3594,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,22 +3617,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3628,22 +3640,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3651,22 +3663,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3674,22 +3686,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3697,22 +3709,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3720,19 +3732,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>21</v>
@@ -3743,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,22 +3778,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3789,19 +3801,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>21</v>
@@ -3812,22 +3824,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3835,19 +3847,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,22 +3870,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3881,19 +3893,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3916,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>21</v>
@@ -3927,19 +3939,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3962,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>21</v>
@@ -3973,19 +3985,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>21</v>
@@ -3996,19 +4008,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4031,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4054,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4077,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,22 +4100,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>34</v>
@@ -4111,19 +4123,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4134,22 +4146,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>34</v>
@@ -4157,22 +4169,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>34</v>
@@ -4180,19 +4192,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4203,19 +4215,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4226,19 +4238,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4249,19 +4261,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4272,19 +4284,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4295,19 +4307,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4318,19 +4330,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4341,19 +4353,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4364,19 +4376,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4387,19 +4399,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4410,19 +4422,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4433,19 +4445,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4456,19 +4468,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4479,19 +4491,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4502,600 +4514,600 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
@@ -5103,22 +5115,22 @@
         <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="197">
@@ -5126,22 +5138,22 @@
         <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G197" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198">
@@ -5149,22 +5161,22 @@
         <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199">
@@ -5172,22 +5184,22 @@
         <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
@@ -5195,21 +5207,251 @@
         <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>34</v>
       </c>
     </row>
